--- a/annotation/annotation_schema_cookversational_search_german.xlsx
+++ b/annotation/annotation_schema_cookversational_search_german.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Promotion\CookversationalSearch\annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{441873AE-759E-4957-AD6F-D021384E9207}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8ED35-5396-4A27-8458-4A29C47BE23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" firstSheet="8" activeTab="12" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="656">
   <si>
     <t>Definition</t>
   </si>
@@ -356,9 +356,6 @@
     <t>Proper Storage Time explicit</t>
   </si>
   <si>
-    <t>Proper Storage implizit</t>
-  </si>
-  <si>
     <t>Ingredient Type</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>Ingredient Substitution - explicit</t>
   </si>
   <si>
-    <t>Ingredient Substitution - implizit</t>
-  </si>
-  <si>
     <t>Ingredient before substitution</t>
   </si>
   <si>
@@ -563,9 +557,6 @@
     <t>Request for Info Source explicit</t>
   </si>
   <si>
-    <t>Request for Info Source implizit</t>
-  </si>
-  <si>
     <t>Request for Ratings</t>
   </si>
   <si>
@@ -620,9 +611,6 @@
     <t>Request for Recipe Search Success</t>
   </si>
   <si>
-    <t>Recipe selection - explizit</t>
-  </si>
-  <si>
     <t>Recipe selection - implicit</t>
   </si>
   <si>
@@ -641,9 +629,6 @@
     <t>Request for Tips/Suggestions</t>
   </si>
   <si>
-    <t>Request for Tips - Rückversicherung</t>
-  </si>
-  <si>
     <t>Picture Request</t>
   </si>
   <si>
@@ -2000,9 +1985,6 @@
     <t>Navigational Instruction on SERP</t>
   </si>
   <si>
-    <t>System Instrucation - Stop Reading out SERP</t>
-  </si>
-  <si>
     <t>Question regarding experiment</t>
   </si>
   <si>
@@ -2022,6 +2004,24 @@
   </si>
   <si>
     <t>Ingredient Existence in Recipe - implicit</t>
+  </si>
+  <si>
+    <t>Proper Storage implicit</t>
+  </si>
+  <si>
+    <t>Ingredient Substitution - implicit</t>
+  </si>
+  <si>
+    <t>Request for Info Source implicit</t>
+  </si>
+  <si>
+    <t>Request for Tips - Reassurance</t>
+  </si>
+  <si>
+    <t>Recipe selection - explicit</t>
+  </si>
+  <si>
+    <t>System Instruction - Stop Reading out SERP</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E1D3-9445-4B4C-A072-A2434CC2F18B}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2658,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2681,37 +2681,37 @@
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2721,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2731,7 +2731,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2741,7 +2741,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2751,17 +2751,17 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2769,20 +2769,20 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>0</v>
@@ -3744,10 +3744,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -3760,10 +3760,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -3776,10 +3776,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -3792,10 +3792,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -3810,10 +3810,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -3826,10 +3826,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -3842,10 +3842,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -3858,10 +3858,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -3890,7 +3890,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>0</v>
@@ -3917,14 +3917,14 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -3933,14 +3933,14 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -3949,14 +3949,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -3965,21 +3965,21 @@
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3991,13 +3991,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -4006,13 +4006,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -4021,14 +4021,14 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4044,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915427E-EB66-4D57-9EE6-CCE54387639F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4058,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -4074,10 +4074,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -4090,10 +4090,10 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -4106,10 +4106,10 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -4118,14 +4118,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -4138,10 +4138,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -4150,14 +4150,14 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -4166,25 +4166,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
@@ -4195,13 +4195,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>188</v>
+        <v>654</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4211,13 +4211,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -4226,11 +4226,11 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
@@ -4246,10 +4246,10 @@
         <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4264,10 +4264,10 @@
         <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -4280,10 +4280,10 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
@@ -4313,10 +4313,10 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -4329,10 +4329,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -4341,14 +4341,14 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -4361,10 +4361,10 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -4373,14 +4373,14 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -4389,14 +4389,14 @@
         <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -4409,10 +4409,10 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -4437,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0DF86-2410-4906-BE52-F9521CE6C0DA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,7 +4451,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>0</v>
@@ -4478,14 +4478,14 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -4494,14 +4494,14 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -4510,14 +4510,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -4526,14 +4526,14 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -4542,14 +4542,14 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -4561,13 +4561,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -4576,14 +4576,14 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -4592,14 +4592,14 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4608,14 +4608,14 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -4624,14 +4624,14 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -4640,14 +4640,14 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4663,7 +4663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE1575-6DD2-47BE-8FAF-B6DF066CFA3D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -4709,10 +4709,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -4725,10 +4725,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -4741,10 +4741,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -4753,14 +4753,14 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -4789,10 +4789,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -4807,10 +4807,10 @@
         <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -4825,10 +4825,10 @@
         <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4843,10 +4843,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -4859,10 +4859,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -4875,10 +4875,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4890,10 +4890,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -4905,10 +4905,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -4921,10 +4921,10 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -4936,10 +4936,10 @@
         <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -4951,10 +4951,10 @@
         <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -4970,15 +4970,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE098B1-1A9F-4D55-8585-A671B6D9B9D3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="B29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="65.7109375" style="1" customWidth="1"/>
@@ -4999,13 +4999,13 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -5025,7 +5025,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5058,13 +5058,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -5082,10 +5082,10 @@
         <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -5101,10 +5101,10 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -5116,14 +5116,14 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -5135,14 +5135,14 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5177,10 +5177,10 @@
         <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -5195,13 +5195,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -5217,10 +5217,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -5236,10 +5236,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -5253,10 +5253,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -5270,10 +5270,10 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -5289,10 +5289,10 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -5308,10 +5308,10 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -5325,10 +5325,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -5342,7 +5342,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5359,10 +5359,10 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -5378,10 +5378,10 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -5397,10 +5397,10 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -5416,10 +5416,10 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -5435,10 +5435,10 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -5450,14 +5450,14 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -5466,15 +5466,15 @@
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -5483,12 +5483,12 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5501,14 +5501,14 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -5520,14 +5520,14 @@
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -5543,10 +5543,10 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -5562,10 +5562,10 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -5574,12 +5574,12 @@
         <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -5596,10 +5596,10 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -5615,10 +5615,10 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -5630,14 +5630,14 @@
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -5649,14 +5649,14 @@
         <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -5670,7 +5670,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5687,10 +5687,10 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -5702,14 +5702,14 @@
         <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G40" s="3"/>
     </row>
@@ -5721,14 +5721,14 @@
         <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>651</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -5740,14 +5740,14 @@
         <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -5756,15 +5756,15 @@
         <v>13</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -5773,12 +5773,12 @@
         <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5795,10 +5795,10 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -5814,10 +5814,10 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -5829,14 +5829,14 @@
         <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -5848,14 +5848,14 @@
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -5864,12 +5864,12 @@
         <v>13</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -5882,14 +5882,14 @@
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -5901,7 +5901,7 @@
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5919,13 +5919,13 @@
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G52" s="3"/>
     </row>
@@ -5940,13 +5940,13 @@
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G53" s="3"/>
     </row>
@@ -5961,13 +5961,13 @@
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -5979,7 +5979,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5997,13 +5997,13 @@
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -6018,13 +6018,13 @@
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G57" s="3"/>
     </row>
@@ -6039,13 +6039,13 @@
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G58" s="3"/>
     </row>
@@ -6060,13 +6060,13 @@
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G59" s="3"/>
     </row>
@@ -6082,10 +6082,10 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G60" s="3"/>
     </row>
@@ -6101,10 +6101,10 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -6121,7 +6121,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6135,7 +6135,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -6144,13 +6144,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1</v>
@@ -6162,11 +6162,11 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6179,13 +6179,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -6197,13 +6197,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -6215,13 +6215,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -6233,13 +6233,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -6251,13 +6251,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -6269,13 +6269,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -6287,13 +6287,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -6305,13 +6305,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -6323,13 +6323,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -6341,13 +6341,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -6359,13 +6359,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -6377,13 +6377,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -6395,13 +6395,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -6410,14 +6410,14 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -6426,14 +6426,14 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -6442,14 +6442,14 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -6458,14 +6458,14 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -6474,14 +6474,14 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -6497,8 +6497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A411C0C-28B1-4379-A4D6-C3F45C1C4DE2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6511,7 +6511,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -6538,14 +6538,14 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -6554,14 +6554,14 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -6570,14 +6570,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -6586,14 +6586,14 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -6602,14 +6602,14 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -6618,11 +6618,11 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
@@ -6635,13 +6635,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -6653,13 +6653,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -6668,14 +6668,14 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -6684,14 +6684,14 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -6700,14 +6700,14 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6747,10 +6747,10 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -6785,10 +6785,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -6803,10 +6803,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
@@ -6835,10 +6835,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -6853,10 +6853,10 @@
         <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -6869,10 +6869,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
@@ -6901,10 +6901,10 @@
         <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -6919,10 +6919,10 @@
         <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -6935,10 +6935,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6951,10 +6951,10 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -6967,10 +6967,10 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
@@ -6999,10 +6999,10 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -7017,10 +7017,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -7035,10 +7035,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
@@ -7067,10 +7067,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -7085,10 +7085,10 @@
         <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -7103,10 +7103,10 @@
         <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -7119,10 +7119,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -7138,8 +7138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFF3A2-12C7-4554-942E-AC5C50C03C75}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7154,7 +7154,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -7166,16 +7166,16 @@
     <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="13" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>0</v>
@@ -7190,16 +7190,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -7208,13 +7208,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -7227,15 +7227,15 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -7247,15 +7247,15 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>652</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -7264,13 +7264,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -7283,15 +7283,15 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -7303,15 +7303,15 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -7323,15 +7323,15 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -7340,16 +7340,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -7358,16 +7358,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -7376,16 +7376,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -7394,16 +7394,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -7415,15 +7415,15 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>195</v>
+        <v>653</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -7432,13 +7432,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
@@ -7464,14 +7464,14 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -7483,14 +7483,14 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -7506,10 +7506,10 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -7521,15 +7521,15 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -7544,11 +7544,11 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
@@ -7565,13 +7565,13 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -7587,13 +7587,13 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -7608,11 +7608,11 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
@@ -7631,13 +7631,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -7655,13 +7655,13 @@
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -7673,15 +7673,15 @@
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -7693,12 +7693,12 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
@@ -7714,14 +7714,14 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -7736,14 +7736,14 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -7755,15 +7755,15 @@
         <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7780,7 +7780,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7801,10 +7801,10 @@
     </row>
     <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
@@ -7823,10 +7823,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -7839,10 +7839,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -7855,10 +7855,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -7871,10 +7871,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -7903,10 +7903,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -7921,10 +7921,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -7937,10 +7937,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -7953,10 +7953,10 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -7969,10 +7969,10 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -7985,10 +7985,10 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -7997,10 +7997,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8008,10 +8008,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8027,7 +8027,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -8078,10 +8078,10 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -8093,10 +8093,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -8108,10 +8108,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -8123,10 +8123,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -8138,10 +8138,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -8153,10 +8153,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -8168,10 +8168,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/annotation/annotation_schema_cookversational_search_german.xlsx
+++ b/annotation/annotation_schema_cookversational_search_german.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8ED35-5396-4A27-8458-4A29C47BE23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519568B-255F-994E-8A79-C47A83C2A293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" firstSheet="8" activeTab="12" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
+    <workbookView xWindow="28820" yWindow="-3120" windowWidth="38380" windowHeight="21140" activeTab="4" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="658">
   <si>
     <t>Definition</t>
   </si>
@@ -2022,6 +2022,12 @@
   </si>
   <si>
     <t>System Instruction - Stop Reading out SERP</t>
+  </si>
+  <si>
+    <t>Ob was gemacht werden muss</t>
+  </si>
+  <si>
+    <t>Wie was gemacht werden muss</t>
   </si>
 </sst>
 </file>
@@ -2641,22 +2647,22 @@
   <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="74.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>601</v>
       </c>
@@ -2666,7 +2672,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2676,7 +2682,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2686,7 +2692,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -2696,7 +2702,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>602</v>
       </c>
@@ -2706,7 +2712,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -2716,7 +2722,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2726,7 +2732,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2736,7 +2742,7 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2746,7 +2752,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2762,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2767,7 +2773,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>603</v>
       </c>
@@ -2777,7 +2783,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>186</v>
       </c>
@@ -2787,903 +2793,903 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E66"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E67"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E68"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E100"/>
       <c r="F100"/>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E101"/>
       <c r="F101"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E102"/>
       <c r="F102"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E103"/>
       <c r="F103"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E104"/>
       <c r="F104"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E105"/>
       <c r="F105"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E106"/>
       <c r="F106"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E107"/>
       <c r="F107"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E108"/>
       <c r="F108"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E109"/>
       <c r="F109"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E110"/>
       <c r="F110"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E111"/>
       <c r="F111"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E112"/>
       <c r="F112"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E113"/>
       <c r="F113"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E114"/>
       <c r="F114"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E115"/>
       <c r="F115"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E116"/>
       <c r="F116"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E117"/>
       <c r="F117"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E118"/>
       <c r="F118"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E119"/>
       <c r="F119"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E120"/>
       <c r="F120"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E121"/>
       <c r="F121"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E122"/>
       <c r="F122"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E123"/>
       <c r="F123"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E124"/>
       <c r="F124"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E125"/>
       <c r="F125"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E126"/>
       <c r="F126"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E127"/>
       <c r="F127"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E128"/>
       <c r="F128"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E129"/>
       <c r="F129"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E130"/>
       <c r="F130"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E131"/>
       <c r="F131"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E132"/>
       <c r="F132"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E133"/>
       <c r="F133"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E134"/>
       <c r="F134"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E135"/>
       <c r="F135"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E136"/>
       <c r="F136"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E137"/>
       <c r="F137"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E138"/>
       <c r="F138"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E140"/>
       <c r="F140"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E141"/>
       <c r="F141"/>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E142"/>
       <c r="F142"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E143"/>
       <c r="F143"/>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E144"/>
       <c r="F144"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E145"/>
       <c r="F145"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E146"/>
       <c r="F146"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E147"/>
       <c r="F147"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E148"/>
       <c r="F148"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E149"/>
       <c r="F149"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E150"/>
       <c r="F150"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E151"/>
       <c r="F151"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E152"/>
       <c r="F152"/>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E153"/>
       <c r="F153"/>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E154"/>
       <c r="F154"/>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E155"/>
       <c r="F155"/>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E156"/>
       <c r="F156"/>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E157"/>
       <c r="F157"/>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E158"/>
       <c r="F158"/>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E159"/>
       <c r="F159"/>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E160"/>
       <c r="F160"/>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E161"/>
       <c r="F161"/>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E162"/>
       <c r="F162"/>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E163"/>
       <c r="F163"/>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E164"/>
       <c r="F164"/>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E165"/>
       <c r="F165"/>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E166"/>
       <c r="F166"/>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E167"/>
       <c r="F167"/>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E168"/>
       <c r="F168"/>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E169"/>
       <c r="F169"/>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E170"/>
       <c r="F170"/>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E171"/>
       <c r="F171"/>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E172"/>
       <c r="F172"/>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E173"/>
       <c r="F173"/>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E174"/>
       <c r="F174"/>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E175"/>
       <c r="F175"/>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E176"/>
       <c r="F176"/>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E177"/>
       <c r="F177"/>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E178"/>
       <c r="F178"/>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E179"/>
       <c r="F179"/>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E180"/>
       <c r="F180"/>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E181"/>
       <c r="F181"/>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E182"/>
       <c r="F182"/>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E183"/>
       <c r="F183"/>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E184"/>
       <c r="F184"/>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E185"/>
       <c r="F185"/>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E186"/>
       <c r="F186"/>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E187"/>
       <c r="F187"/>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E188"/>
       <c r="F188"/>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E189"/>
       <c r="F189"/>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E190"/>
       <c r="F190"/>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E191"/>
       <c r="F191"/>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E192"/>
       <c r="F192"/>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E193"/>
       <c r="F193"/>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E194"/>
       <c r="F194"/>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E195"/>
       <c r="F195"/>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E196"/>
       <c r="F196"/>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E197"/>
       <c r="F197"/>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E198"/>
       <c r="F198"/>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E199"/>
       <c r="F199"/>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E200"/>
       <c r="F200"/>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E201"/>
       <c r="F201"/>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E202"/>
       <c r="F202"/>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E203"/>
       <c r="F203"/>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E204"/>
       <c r="F204"/>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E205"/>
       <c r="F205"/>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E206"/>
       <c r="F206"/>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E207"/>
       <c r="F207"/>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E208"/>
       <c r="F208"/>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E209"/>
       <c r="F209"/>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E210"/>
       <c r="F210"/>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E211"/>
       <c r="F211"/>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E212"/>
       <c r="F212"/>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E213"/>
       <c r="F213"/>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E214"/>
       <c r="F214"/>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E215"/>
       <c r="F215"/>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E216"/>
       <c r="F216"/>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E217"/>
       <c r="F217"/>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E218"/>
       <c r="F218"/>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E219"/>
       <c r="F219"/>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E220"/>
       <c r="F220"/>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E221"/>
       <c r="F221"/>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E222"/>
       <c r="F222"/>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E223"/>
       <c r="F223"/>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E224"/>
       <c r="F224"/>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E225"/>
       <c r="F225"/>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E226"/>
       <c r="F226"/>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E227"/>
       <c r="F227"/>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E228"/>
       <c r="F228"/>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E229"/>
       <c r="F229"/>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E230"/>
       <c r="F230"/>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E231"/>
       <c r="F231"/>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E232"/>
       <c r="F232"/>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E233"/>
       <c r="F233"/>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E234"/>
       <c r="F234"/>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E235"/>
       <c r="F235"/>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E236"/>
       <c r="F236"/>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E237"/>
       <c r="F237"/>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E238"/>
       <c r="F238"/>
     </row>
@@ -3701,17 +3707,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="75.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
         <v>14</v>
       </c>
@@ -3720,7 +3726,7 @@
       <c r="E1" s="34"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
         <v>617</v>
       </c>
@@ -3735,7 +3741,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3751,7 +3757,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3767,7 +3773,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3783,7 +3789,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3799,7 +3805,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3817,7 +3823,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3833,7 +3839,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3849,7 +3855,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3878,17 +3884,18 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="47.85546875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="65.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="65.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="35" t="s">
         <v>144</v>
       </c>
@@ -3897,7 +3904,7 @@
       <c r="E1" s="35"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
         <v>617</v>
       </c>
@@ -3912,7 +3919,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3928,7 +3935,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3944,7 +3951,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3960,7 +3967,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3976,7 +3983,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>639</v>
@@ -3986,7 +3993,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4001,7 +4008,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4016,7 +4023,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4044,19 +4051,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915427E-EB66-4D57-9EE6-CCE54387639F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.1640625" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="36" t="s">
         <v>622</v>
       </c>
@@ -4065,7 +4072,7 @@
       <c r="E1" s="36"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4081,7 +4088,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4104,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4113,7 +4120,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -4129,7 +4136,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4145,7 +4152,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4161,7 +4168,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4177,7 +4184,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>592</v>
@@ -4189,7 +4196,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -4205,7 +4212,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -4221,7 +4228,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4235,7 +4242,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4253,7 +4260,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4271,7 +4278,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -4287,7 +4294,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4295,7 +4302,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="36" t="s">
         <v>623</v>
       </c>
@@ -4304,7 +4311,7 @@
       <c r="E17" s="36"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -4320,7 +4327,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4336,7 +4343,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -4352,7 +4359,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -4368,7 +4375,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4384,7 +4391,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -4400,7 +4407,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -4416,11 +4423,11 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="23"/>
     </row>
@@ -4437,19 +4444,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0DF86-2410-4906-BE52-F9521CE6C0DA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.83203125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="37" t="s">
         <v>186</v>
       </c>
@@ -4458,7 +4465,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>617</v>
       </c>
@@ -4473,7 +4480,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4489,7 +4496,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4505,7 +4512,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -4521,7 +4528,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4537,7 +4544,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4553,7 +4560,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4571,7 +4578,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -4587,7 +4594,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4603,7 +4610,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -4619,7 +4626,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4635,7 +4642,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4664,19 +4671,19 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="108.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="108.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="26" t="s">
         <v>69</v>
       </c>
@@ -4685,7 +4692,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>617</v>
       </c>
@@ -4700,7 +4707,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -4716,7 +4723,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -4732,7 +4739,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -4748,7 +4755,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -4764,7 +4771,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -4778,7 +4785,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4796,7 +4803,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -4814,7 +4821,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -4832,7 +4839,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -4850,7 +4857,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -4866,7 +4873,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -4882,7 +4889,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -4897,7 +4904,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4912,7 +4919,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -4928,7 +4935,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -4943,7 +4950,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -4970,22 +4977,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE098B1-1A9F-4D55-8585-A671B6D9B9D3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="27" t="s">
         <v>84</v>
@@ -4996,7 +5003,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
         <v>617</v>
@@ -5015,7 +5022,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -5030,7 +5037,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -5047,7 +5054,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -5068,7 +5075,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -5089,7 +5096,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -5108,7 +5115,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5127,7 +5134,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -5146,7 +5153,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5170,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5184,7 +5191,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5205,7 +5212,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -5224,7 +5231,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5243,7 +5250,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -5260,7 +5267,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -5277,7 +5284,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -5296,7 +5303,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -5315,7 +5322,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -5332,7 +5339,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -5347,7 +5354,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -5366,7 +5373,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5385,7 +5392,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -5404,7 +5411,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -5423,7 +5430,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -5442,7 +5449,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
@@ -5461,7 +5468,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -5478,7 +5485,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -5491,9 +5498,11 @@
         <v>364</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -5512,7 +5521,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -5531,7 +5540,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -5550,7 +5559,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -5569,7 +5578,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -5584,7 +5593,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -5603,7 +5612,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -5622,7 +5631,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -5641,7 +5650,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -5660,7 +5669,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
@@ -5675,7 +5684,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -5694,7 +5703,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -5713,7 +5722,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -5732,7 +5741,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
@@ -5751,7 +5760,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -5768,7 +5777,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
@@ -5783,7 +5792,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -5802,7 +5811,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -5821,7 +5830,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -5840,7 +5849,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
@@ -5859,7 +5868,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>13</v>
       </c>
@@ -5874,7 +5883,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
@@ -5893,7 +5902,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -5908,7 +5917,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
@@ -5929,7 +5938,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
@@ -5971,7 +5980,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>13</v>
       </c>
@@ -5986,7 +5995,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
@@ -6007,7 +6016,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -6028,7 +6037,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -6049,7 +6058,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
@@ -6070,7 +6079,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
@@ -6089,7 +6098,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
@@ -6120,20 +6129,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07392A47-5175-4595-BC44-1650A45F3926}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="48" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="115.140625" style="1" customWidth="1"/>
-    <col min="6" max="14" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="115.1640625" style="1" customWidth="1"/>
+    <col min="6" max="14" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="s">
         <v>124</v>
       </c>
@@ -6142,7 +6151,7 @@
       <c r="E1" s="28"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>617</v>
       </c>
@@ -6157,7 +6166,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -6171,7 +6180,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -6189,7 +6198,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -6207,7 +6216,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -6225,7 +6234,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -6243,7 +6252,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -6261,7 +6270,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -6279,7 +6288,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -6297,7 +6306,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -6315,7 +6324,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -6333,7 +6342,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -6351,7 +6360,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -6369,7 +6378,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -6387,7 +6396,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -6405,7 +6414,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -6421,7 +6430,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -6437,7 +6446,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -6453,7 +6462,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -6469,7 +6478,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -6497,28 +6506,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A411C0C-28B1-4379-A4D6-C3F45C1C4DE2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="79.85546875" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="29" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>617</v>
       </c>
@@ -6533,7 +6544,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6549,7 +6560,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -6565,7 +6576,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -6581,7 +6592,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6597,7 +6608,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -6613,7 +6624,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6627,7 +6638,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6645,7 +6656,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6663,7 +6674,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6679,7 +6690,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -6695,7 +6706,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -6723,18 +6734,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B65F74-2026-4F89-81A2-27E36103C220}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="86.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="86.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="30" t="s">
         <v>35</v>
@@ -6744,7 +6755,7 @@
       <c r="E1" s="30"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
         <v>617</v>
@@ -6760,7 +6771,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6774,7 +6785,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -6792,7 +6803,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -6810,7 +6821,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6824,7 +6835,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -6842,7 +6853,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6860,7 +6871,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6876,7 +6887,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6890,7 +6901,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6908,7 +6919,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -6926,7 +6937,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -6942,7 +6953,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -6958,7 +6969,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -6974,7 +6985,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -6988,7 +6999,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7006,7 +7017,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7024,7 +7035,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7042,7 +7053,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -7056,7 +7067,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -7074,7 +7085,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -7092,7 +7103,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -7110,7 +7121,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -7138,21 +7149,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFF3A2-12C7-4554-942E-AC5C50C03C75}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="53" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61" style="1" customWidth="1"/>
-    <col min="7" max="7" width="92.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="92.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="31" t="s">
         <v>163</v>
       </c>
@@ -7163,7 +7174,7 @@
       <c r="G1" s="31"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="13" t="s">
         <v>617</v>
@@ -7185,7 +7196,7 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -7203,7 +7214,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -7219,7 +7230,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -7239,7 +7250,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7259,7 +7270,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7275,7 +7286,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7295,7 +7306,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -7315,7 +7326,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -7335,7 +7346,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7353,7 +7364,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -7371,7 +7382,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -7389,7 +7400,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7407,7 +7418,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -7427,7 +7438,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -7443,7 +7454,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7456,7 +7467,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7475,7 +7486,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7494,7 +7505,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -7513,7 +7524,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -7533,7 +7544,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -7553,7 +7564,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -7575,7 +7586,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -7597,7 +7608,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -7641,7 +7652,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -7665,7 +7676,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -7685,7 +7696,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -7703,7 +7714,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -7725,7 +7736,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -7747,7 +7758,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -7780,17 +7791,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="1" customWidth="1"/>
-    <col min="4" max="5" width="83.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="83.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
@@ -7799,7 +7810,7 @@
       <c r="E1" s="32"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
         <v>617</v>
       </c>
@@ -7814,7 +7825,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -7830,7 +7841,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -7846,7 +7857,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -7862,7 +7873,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7878,7 +7889,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7892,7 +7903,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7910,7 +7921,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -7928,7 +7939,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -7944,7 +7955,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7960,7 +7971,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -7976,7 +7987,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -7992,7 +8003,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
@@ -8003,7 +8014,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
@@ -8027,15 +8038,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="82.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="82.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="33" t="s">
         <v>26</v>
       </c>
@@ -8043,7 +8055,7 @@
       <c r="D1" s="33"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
         <v>617</v>
       </c>
@@ -8055,7 +8067,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -8070,7 +8082,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -8085,7 +8097,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -8100,7 +8112,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8115,7 +8127,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -8130,7 +8142,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -8145,7 +8157,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -8160,7 +8172,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/annotation/annotation_schema_cookversational_search_german.xlsx
+++ b/annotation/annotation_schema_cookversational_search_german.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Documents/GitHub/CookversationalSearch/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519568B-255F-994E-8A79-C47A83C2A293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19C24E-B355-CB44-837F-BC0BB94D73B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-3120" windowWidth="38380" windowHeight="21140" activeTab="4" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
+    <workbookView xWindow="-25560" yWindow="-460" windowWidth="25320" windowHeight="18380" firstSheet="1" activeTab="3" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -4051,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915427E-EB66-4D57-9EE6-CCE54387639F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4445,7 +4445,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4671,7 +4671,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4977,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE098B1-1A9F-4D55-8585-A671B6D9B9D3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A5" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6129,7 +6129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07392A47-5175-4595-BC44-1650A45F3926}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6506,7 +6506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A411C0C-28B1-4379-A4D6-C3F45C1C4DE2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7149,7 +7149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFF3A2-12C7-4554-942E-AC5C50C03C75}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="110" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/annotation/annotation_schema_cookversational_search_german.xlsx
+++ b/annotation/annotation_schema_cookversational_search_german.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Documents/GitHub/CookversationalSearch/annotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\CookversationalSearch\annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19C24E-B355-CB44-837F-BC0BB94D73B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015573D-1208-49E9-A75C-FA1D31FD9C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="-460" windowWidth="25320" windowHeight="18380" firstSheet="1" activeTab="3" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4DA8BC8C-CB17-4341-84BF-B96DC8599B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -24,8 +24,7 @@
     <sheet name="Knowledge" sheetId="10" r:id="rId9"/>
     <sheet name="Meal" sheetId="11" r:id="rId10"/>
     <sheet name="Temperature" sheetId="12" r:id="rId11"/>
-    <sheet name="Actions &amp; Commands" sheetId="13" r:id="rId12"/>
-    <sheet name="Misc" sheetId="14" r:id="rId13"/>
+    <sheet name="Misc" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Overview!#REF!</definedName>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="593">
   <si>
     <t>Definition</t>
   </si>
@@ -224,39 +223,9 @@
     <t>Cooking Time</t>
   </si>
   <si>
-    <t>Do Calculations</t>
-  </si>
-  <si>
-    <t>Pause reading out</t>
-  </si>
-  <si>
-    <t>Turn on music</t>
-  </si>
-  <si>
     <t>Ingredient Substitution</t>
   </si>
   <si>
-    <t>Add Ingredients to Recipe Search</t>
-  </si>
-  <si>
-    <t>Change Amount of Ingredient</t>
-  </si>
-  <si>
-    <t>Change Amount of Persons</t>
-  </si>
-  <si>
-    <t>Recipe Adaption</t>
-  </si>
-  <si>
-    <t>Filter Search</t>
-  </si>
-  <si>
-    <t>Navigation - Recipe Ingredient List</t>
-  </si>
-  <si>
-    <t>Navigation - Switch back to recipe</t>
-  </si>
-  <si>
     <t>Read out result list</t>
   </si>
   <si>
@@ -611,9 +580,6 @@
     <t>Request for Recipe Search Success</t>
   </si>
   <si>
-    <t>Recipe selection - implicit</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -1712,105 +1678,6 @@
     <t>„Hast du schon mal die (-) Reis so gekocht (?)“ (TP8, Absatz 164)</t>
   </si>
   <si>
-    <t>Befehl des Nutzers, Zutaten durch andere zu ersetzen.</t>
-  </si>
-  <si>
-    <t>„Wir ersetzen Frischkäse durch Mozzarella (_)“ (TP30, Absatz 173)</t>
-  </si>
-  <si>
-    <t>Befehl des Nutzers an das System, Dinge zu berechnen.</t>
-  </si>
-  <si>
-    <t>„Kannst du mir das ausrechnen (?)“ (TP39, Absatz 21)</t>
-  </si>
-  <si>
-    <t>Befehl, das Vorlesen der Schritte/Zutaten etc. zu pausieren</t>
-  </si>
-  <si>
-    <t>„Pause (,)“ (TP36, Absatz 55)</t>
-  </si>
-  <si>
-    <t>„Gut (-) Wecker auf 45 Minuten (_)“ (TP35, Absatz 97)</t>
-  </si>
-  <si>
-    <t>Befehl, einen Timer zu stellen/modifizieren/auszumachen</t>
-  </si>
-  <si>
-    <t>„Alex (_) Schalte Musik ein (_)“ (TP30, Absatz 61)</t>
-  </si>
-  <si>
-    <t>Befehl, Musik anzuschalten</t>
-  </si>
-  <si>
-    <t>Befehl, weitere Zutaten zur Rezeptsuche hinzuzufügen</t>
-  </si>
-  <si>
-    <t>„Vielleicht kannst du noch irgendwie Zutaten dazu (?) geben (,)“ (TP14, Absatz 10)</t>
-  </si>
-  <si>
-    <t>Befehl, Zutaten beim Kochen zu entfernen/wegzulassen</t>
-  </si>
-  <si>
-    <t>„Schinken kannst weglassen (_)“ (TP1, Absatz 164)</t>
-  </si>
-  <si>
-    <t>Befehl, Zutatenmenge zu ändern</t>
-  </si>
-  <si>
-    <t>Befehl, Anzahl der Personen für die das Rezept gedacht ist zu ändern</t>
-  </si>
-  <si>
-    <t>„Reduziere die Menge auf die Hälfte“ (TP30, Absatz 53)</t>
-  </si>
-  <si>
-    <t>„Für zwei Personen (_)“ (TP39, Absatz 19)</t>
-  </si>
-  <si>
-    <t>Befehl, Mengen zu ändern</t>
-  </si>
-  <si>
-    <t>Rezept wird angepasst. Ganze Zubereitungsteile werden ersetzt</t>
-  </si>
-  <si>
-    <t>„Nö wir machen es vegetarisch (_)“ (TP6, Absatz 16)</t>
-  </si>
-  <si>
-    <t>Rezeptsuche soll nach bestimmten Aspekten gefiltert werden</t>
-  </si>
-  <si>
-    <t>„Und nimm alles raus was überbacken werden muss oder einen Ofen braucht (_)“ (TP25, Absatz 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutzer soll in Rezept in der Zutatenliste navigieren. </t>
-  </si>
-  <si>
-    <t>„Oder steht vielleicht bei den ZUtaten schau nochmal da (,) bei den Zutaten steht ja dann auch manchmal (-)“ (TP23, Absatz 44)</t>
-  </si>
-  <si>
-    <t>Nutzer will ein Rezept vormerken (--&gt; Metapher)</t>
-  </si>
-  <si>
-    <t>„Kannst du da irgendwie vormerken oder so (?)“ (TP21, Absatz 12)</t>
-  </si>
-  <si>
-    <t>Wunsch wieder über das Rezept zu reden/wieder zum Rezept zu wechseln. Hierbei handelt es sich um einen Akt der Navigation</t>
-  </si>
-  <si>
-    <t>„Ok dann tu mal wieder das Rezept her (,)(.)“ (TP1, Absatz 102)</t>
-  </si>
-  <si>
-    <t>Das System soll das Vorlesen der SERP stoppen.</t>
-  </si>
-  <si>
-    <t>„//Ja passt schon//(_)“ (TP1, Absatz 212)</t>
-  </si>
-  <si>
-    <t>„Geh mal ganz oben in das ähm (..) da wo die an Sterne angezeigt werden (_)“ (TP1, Absatz 42)</t>
-  </si>
-  <si>
-    <t>Hierbei handelt es sich um Navigationsanweisungen auf der SERP. Nutzer hat ein mentales Modell der Website</t>
-  </si>
-  <si>
     <t>„Ok (_) Und wie heißt das Gericht nochmal (-) Eintopf (?) Oder (-)“ (TP23, Absatz 134)</t>
   </si>
   <si>
@@ -1826,48 +1693,9 @@
     <t>Frage, wie bereits zubereitete Teile des Gerichts zu einem späteren Zeitpunkt weiterverarbeitet werden sollen</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingredient removal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeat Ingredient Readout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recipe Selection </t>
-  </si>
-  <si>
-    <t>Change Amount</t>
-  </si>
-  <si>
-    <t>Befehl, Zutaten erneut vorzulesen</t>
-  </si>
-  <si>
-    <t>„Was war da nochmal les nochmal vor (-)“ (TP21, Absatz 18)</t>
-  </si>
-  <si>
-    <t>Mitteilung an das System, ein Rezept auszuwählen</t>
-  </si>
-  <si>
-    <t>Explizite Auswahl eines Rezepts</t>
-  </si>
-  <si>
-    <t>Implizite Auswahl eines Rezepts</t>
-  </si>
-  <si>
-    <t>„Ja das hört sich doch gut an (_) Dann machen wir das (,)“ (TP13, Absatz 10)</t>
-  </si>
-  <si>
-    <t>„Perfekt (,) Klingt gut (_)“ (TP7, Absatz 26)</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
     <t>Cooking Technique</t>
   </si>
   <si>
-    <t>Actions &amp; Commands</t>
-  </si>
-  <si>
     <t>Informationsbedürfnisse, die Mengen beim Kochen betreffen</t>
   </si>
   <si>
@@ -1895,9 +1723,6 @@
     <t>Informationsbedürfnisse, die sich auf die Temperatur beziehen</t>
   </si>
   <si>
-    <t>Äußerungen dieser Klasse können nicht als Informationsbedürfnisse betrachtet werden, stattdessen beinhaltet sie Befehle, die Nutzer an das System stellen</t>
-  </si>
-  <si>
     <t>Informationsbedürfnisse, die sich auf das aktuelle zubereitete Gericht beziehen, jedoch allgemeinerer Natur sind als z.B. Preparation</t>
   </si>
   <si>
@@ -1907,12 +1732,6 @@
     <t>Defintion</t>
   </si>
   <si>
-    <t>Code Ebene 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Ebene 2 </t>
-  </si>
-  <si>
     <t>Code Ebene 2</t>
   </si>
   <si>
@@ -1922,12 +1741,6 @@
     <t>Code Ebene 4</t>
   </si>
   <si>
-    <t>User Command ( = Befehle während der Zubereitung)</t>
-  </si>
-  <si>
-    <t>User Search Actions ( = Befehle die sich auf die Suche &amp; Navigation beziehen)</t>
-  </si>
-  <si>
     <t>Wissensfrage die sich auf eine bestimmte Zutat bezieht. Diese sind meistens definitorischer Natur.</t>
   </si>
   <si>
@@ -1976,15 +1789,6 @@
     <t>Temperature Reassurance</t>
   </si>
   <si>
-    <t>Timer</t>
-  </si>
-  <si>
-    <t>Bookmark</t>
-  </si>
-  <si>
-    <t>Navigational Instruction on SERP</t>
-  </si>
-  <si>
     <t>Question regarding experiment</t>
   </si>
   <si>
@@ -2018,16 +1822,16 @@
     <t>Request for Tips - Reassurance</t>
   </si>
   <si>
-    <t>Recipe selection - explicit</t>
-  </si>
-  <si>
-    <t>System Instruction - Stop Reading out SERP</t>
-  </si>
-  <si>
     <t>Ob was gemacht werden muss</t>
   </si>
   <si>
     <t>Wie was gemacht werden muss</t>
+  </si>
+  <si>
+    <t>Codes Ebene 1</t>
+  </si>
+  <si>
+    <t>Code Ebene 5</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2258,9 +2062,6 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2293,9 +2094,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2337,10 +2135,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42E45A7-EF15-44AA-A868-BBE9DA6AFCB1}" name="Tabelle1" displayName="Tabelle1" ref="A1:B13" totalsRowShown="0">
-  <autoFilter ref="A1:B13" xr:uid="{43E75D6E-17FA-4284-B00D-13ADAD35587D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42E45A7-EF15-44AA-A868-BBE9DA6AFCB1}" name="Tabelle1" displayName="Tabelle1" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{43E75D6E-17FA-4284-B00D-13ADAD35587D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0B559FDF-4413-4370-B9ED-7B8E27C4885E}" name="Codes"/>
+    <tableColumn id="1" xr3:uid="{0B559FDF-4413-4370-B9ED-7B8E27C4885E}" name="Codes Ebene 1"/>
     <tableColumn id="2" xr3:uid="{399351BD-80B6-4288-B4BE-4CA149F055A3}" name="Definition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2644,27 +2442,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E1D3-9445-4B4C-A072-A2434CC2F18B}">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="56.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2672,1026 +2470,1016 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>614</v>
+        <v>556</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>603</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>613</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>554</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>611</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E67"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E68"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E100"/>
       <c r="F100"/>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E101"/>
       <c r="F101"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E102"/>
       <c r="F102"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E103"/>
       <c r="F103"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E104"/>
       <c r="F104"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E105"/>
       <c r="F105"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E106"/>
       <c r="F106"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E107"/>
       <c r="F107"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E108"/>
       <c r="F108"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E109"/>
       <c r="F109"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E110"/>
       <c r="F110"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E111"/>
       <c r="F111"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E112"/>
       <c r="F112"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E113"/>
       <c r="F113"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E114"/>
       <c r="F114"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E115"/>
       <c r="F115"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E116"/>
       <c r="F116"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E117"/>
       <c r="F117"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E118"/>
       <c r="F118"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E119"/>
       <c r="F119"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E120"/>
       <c r="F120"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E121"/>
       <c r="F121"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E122"/>
       <c r="F122"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E123"/>
       <c r="F123"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E124"/>
       <c r="F124"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E125"/>
       <c r="F125"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E126"/>
       <c r="F126"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E127"/>
       <c r="F127"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E128"/>
       <c r="F128"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E129"/>
       <c r="F129"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E130"/>
       <c r="F130"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E131"/>
       <c r="F131"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E132"/>
       <c r="F132"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E133"/>
       <c r="F133"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E134"/>
       <c r="F134"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E135"/>
       <c r="F135"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E136"/>
       <c r="F136"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E137"/>
       <c r="F137"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E138"/>
       <c r="F138"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E140"/>
       <c r="F140"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E141"/>
       <c r="F141"/>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E142"/>
       <c r="F142"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E143"/>
       <c r="F143"/>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E144"/>
       <c r="F144"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E145"/>
       <c r="F145"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E146"/>
       <c r="F146"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E147"/>
       <c r="F147"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E148"/>
       <c r="F148"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E149"/>
       <c r="F149"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E150"/>
       <c r="F150"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E151"/>
       <c r="F151"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E152"/>
       <c r="F152"/>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E153"/>
       <c r="F153"/>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E154"/>
       <c r="F154"/>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E155"/>
       <c r="F155"/>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E156"/>
       <c r="F156"/>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E157"/>
       <c r="F157"/>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E158"/>
       <c r="F158"/>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E159"/>
       <c r="F159"/>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E160"/>
       <c r="F160"/>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E161"/>
       <c r="F161"/>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E162"/>
       <c r="F162"/>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E163"/>
       <c r="F163"/>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E164"/>
       <c r="F164"/>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E165"/>
       <c r="F165"/>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E166"/>
       <c r="F166"/>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E167"/>
       <c r="F167"/>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E168"/>
       <c r="F168"/>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E169"/>
       <c r="F169"/>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E170"/>
       <c r="F170"/>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E171"/>
       <c r="F171"/>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E172"/>
       <c r="F172"/>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E173"/>
       <c r="F173"/>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E174"/>
       <c r="F174"/>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E175"/>
       <c r="F175"/>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E176"/>
       <c r="F176"/>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E177"/>
       <c r="F177"/>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E178"/>
       <c r="F178"/>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E179"/>
       <c r="F179"/>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E180"/>
       <c r="F180"/>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E181"/>
       <c r="F181"/>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E182"/>
       <c r="F182"/>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E183"/>
       <c r="F183"/>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E184"/>
       <c r="F184"/>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E185"/>
       <c r="F185"/>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E186"/>
       <c r="F186"/>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E187"/>
       <c r="F187"/>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E188"/>
       <c r="F188"/>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E189"/>
       <c r="F189"/>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E190"/>
       <c r="F190"/>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E191"/>
       <c r="F191"/>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E192"/>
       <c r="F192"/>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E193"/>
       <c r="F193"/>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E194"/>
       <c r="F194"/>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E195"/>
       <c r="F195"/>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E196"/>
       <c r="F196"/>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E197"/>
       <c r="F197"/>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E198"/>
       <c r="F198"/>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E199"/>
       <c r="F199"/>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E200"/>
       <c r="F200"/>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E201"/>
       <c r="F201"/>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E202"/>
       <c r="F202"/>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E203"/>
       <c r="F203"/>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E204"/>
       <c r="F204"/>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E205"/>
       <c r="F205"/>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E206"/>
       <c r="F206"/>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E207"/>
       <c r="F207"/>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E208"/>
       <c r="F208"/>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E209"/>
       <c r="F209"/>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E210"/>
       <c r="F210"/>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E211"/>
       <c r="F211"/>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E212"/>
       <c r="F212"/>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E213"/>
       <c r="F213"/>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E214"/>
       <c r="F214"/>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E215"/>
       <c r="F215"/>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E216"/>
       <c r="F216"/>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E217"/>
       <c r="F217"/>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E218"/>
       <c r="F218"/>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E219"/>
       <c r="F219"/>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E220"/>
       <c r="F220"/>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E221"/>
       <c r="F221"/>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E222"/>
       <c r="F222"/>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E223"/>
       <c r="F223"/>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E224"/>
       <c r="F224"/>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E225"/>
       <c r="F225"/>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E226"/>
       <c r="F226"/>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E227"/>
       <c r="F227"/>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E228"/>
       <c r="F228"/>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E229"/>
       <c r="F229"/>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E230"/>
       <c r="F230"/>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E231"/>
       <c r="F231"/>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E232"/>
       <c r="F232"/>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E233"/>
       <c r="F233"/>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E234"/>
       <c r="F234"/>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E235"/>
       <c r="F235"/>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E236"/>
       <c r="F236"/>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E237"/>
       <c r="F237"/>
-    </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E238"/>
-      <c r="F238"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3707,31 +3495,31 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="75.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>0</v>
@@ -3741,7 +3529,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3750,14 +3538,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3766,14 +3554,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3782,14 +3570,14 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3798,14 +3586,14 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3816,14 +3604,14 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3832,14 +3620,14 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3848,14 +3636,14 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3864,10 +3652,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -3884,32 +3672,32 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="65.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.5" customWidth="1"/>
+    <col min="4" max="5" width="65.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>0</v>
@@ -3919,123 +3707,123 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>639</v>
+        <v>577</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4048,429 +3836,36 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F915427E-EB66-4D57-9EE6-CCE54387639F}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="53.5" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.1640625" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="36" t="s">
-        <v>622</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="36" t="s">
-        <v>623</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0DF86-2410-4906-BE52-F9521CE6C0DA}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.77734375" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>0</v>
@@ -4480,87 +3875,87 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4568,93 +3963,93 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4671,33 +4066,33 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="39.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="108.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -4707,85 +4102,85 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>638</v>
+        <v>576</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4796,14 +4191,14 @@
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -4811,17 +4206,17 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -4829,17 +4224,17 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -4847,121 +4242,121 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -4977,42 +4372,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE098B1-1A9F-4D55-8585-A671B6D9B9D3}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="39.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="65.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -5022,22 +4417,22 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -5045,16 +4440,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>615</v>
+        <v>557</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -5065,17 +4460,17 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>635</v>
+        <v>573</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>636</v>
+        <v>574</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -5086,17 +4481,17 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -5104,18 +4499,18 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -5123,18 +4518,18 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -5142,18 +4537,18 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>648</v>
+        <v>583</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -5161,16 +4556,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5181,17 +4576,17 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5202,17 +4597,17 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>649</v>
+        <v>584</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -5224,14 +4619,14 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5239,52 +4634,52 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -5292,18 +4687,18 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -5311,50 +4706,50 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -5362,18 +4757,18 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5381,18 +4776,18 @@
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -5404,14 +4799,14 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -5419,18 +4814,18 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -5438,18 +4833,18 @@
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
@@ -5457,52 +4852,52 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -5510,18 +4905,18 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -5529,18 +4924,18 @@
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -5548,18 +4943,18 @@
         <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -5571,29 +4966,29 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -5605,14 +5000,14 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -5620,18 +5015,18 @@
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -5639,18 +5034,18 @@
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -5658,33 +5053,33 @@
         <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -5696,14 +5091,14 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -5711,18 +5106,18 @@
         <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -5730,18 +5125,18 @@
         <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>651</v>
+        <v>586</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
@@ -5749,50 +5144,50 @@
         <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>634</v>
+        <v>572</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
@@ -5800,18 +5195,18 @@
         <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -5823,14 +5218,14 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -5838,18 +5233,18 @@
         <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
@@ -5857,33 +5252,33 @@
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
@@ -5891,18 +5286,18 @@
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -5910,14 +5305,14 @@
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
@@ -5928,17 +5323,17 @@
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
@@ -5949,17 +5344,17 @@
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
@@ -5970,17 +5365,17 @@
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>13</v>
       </c>
@@ -5988,14 +5383,14 @@
         <v>13</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
@@ -6006,17 +5401,17 @@
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -6027,17 +5422,17 @@
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -6048,17 +5443,17 @@
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
@@ -6069,17 +5464,17 @@
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
@@ -6087,18 +5482,18 @@
         <v>13</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
@@ -6110,10 +5505,10 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -6129,58 +5524,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07392A47-5175-4595-BC44-1650A45F3926}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="115.1640625" style="1" customWidth="1"/>
-    <col min="6" max="14" width="11.5" style="1"/>
+    <col min="4" max="5" width="115.109375" style="1" customWidth="1"/>
+    <col min="6" max="14" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>618</v>
+        <v>560</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>616</v>
+        <v>558</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -6188,309 +5583,309 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>637</v>
+        <v>575</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -6507,34 +5902,34 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.83203125" customWidth="1"/>
+    <col min="4" max="4" width="79.77734375" customWidth="1"/>
     <col min="5" max="5" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -6544,101 +5939,101 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>629</v>
+        <v>567</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6646,17 +6041,17 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6664,61 +6059,61 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>630</v>
+        <v>568</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6734,34 +6129,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B65F74-2026-4F89-81A2-27E36103C220}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="86.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>0</v>
@@ -6771,7 +6166,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6780,12 +6175,12 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -6796,14 +6191,14 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -6814,14 +6209,14 @@
         <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6830,12 +6225,12 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -6846,14 +6241,14 @@
         <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6864,14 +6259,14 @@
         <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -6880,14 +6275,14 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -6896,12 +6291,12 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6912,14 +6307,14 @@
         <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -6930,14 +6325,14 @@
         <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -6946,14 +6341,14 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -6962,14 +6357,14 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -6978,14 +6373,14 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -6994,12 +6389,12 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -7010,14 +6405,14 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7028,14 +6423,14 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7046,14 +6441,14 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -7062,12 +6457,12 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -7078,14 +6473,14 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -7096,14 +6491,14 @@
         <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -7114,14 +6509,14 @@
         <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -7130,10 +6525,10 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -7149,44 +6544,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EFF3A2-12C7-4554-942E-AC5C50C03C75}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="53" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="61" style="1" customWidth="1"/>
     <col min="7" max="7" width="92.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
       <c r="B2" s="13" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>619</v>
+        <v>560</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>0</v>
@@ -7196,41 +6591,41 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -7238,19 +6633,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7258,35 +6653,35 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>652</v>
+        <v>587</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7294,19 +6689,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -7314,19 +6709,19 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -7334,91 +6729,91 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -7426,40 +6821,40 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>653</v>
+        <v>588</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -7467,7 +6862,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -7475,18 +6870,18 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7494,18 +6889,18 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -7513,18 +6908,18 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -7532,19 +6927,19 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -7555,16 +6950,16 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -7576,17 +6971,17 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -7598,17 +6993,17 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -7619,16 +7014,16 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -7642,17 +7037,17 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -7666,17 +7061,17 @@
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -7684,19 +7079,19 @@
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -7704,17 +7099,17 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -7725,18 +7120,18 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -7747,18 +7142,18 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -7766,15 +7161,15 @@
         <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -7791,31 +7186,31 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="83.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="83.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>619</v>
+        <v>559</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>560</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
@@ -7825,7 +7220,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -7834,14 +7229,14 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -7850,14 +7245,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -7866,14 +7261,14 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7882,14 +7277,14 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7898,12 +7293,12 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7914,14 +7309,14 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -7932,14 +7327,14 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -7948,14 +7343,14 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -7964,14 +7359,14 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -7980,14 +7375,14 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -7996,33 +7391,33 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>633</v>
+        <v>571</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8038,26 +7433,26 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="82.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>0</v>
@@ -8067,7 +7462,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -8075,14 +7470,14 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -8090,14 +7485,14 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -8105,14 +7500,14 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8120,14 +7515,14 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -8135,14 +7530,14 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -8150,14 +7545,14 @@
         <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -8165,14 +7560,14 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -8180,10 +7575,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E10" s="2"/>
     </row>
